--- a/Spracklen table 3.xlsx
+++ b/Spracklen table 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerfriedman/Documents/School/Spracklen_lab/spracklen_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1916A745-E53C-CF46-89F4-9CBD044B45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC6728B-237E-A048-A6AC-C8E61A7EAA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EF8E25E0-5F57-F84F-9FF8-FBA53204715B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>Table 3: Results from logistic regression analyses for the associations between birthweight and events related to menarche and menopause</t>
   </si>
@@ -167,9 +167,6 @@
 0.002</t>
   </si>
   <si>
-    <t>Adj for demographics (n=)</t>
-  </si>
-  <si>
     <t>1.23 (1.09 - 1.38)
 &lt; 0.001</t>
   </si>
@@ -180,9 +177,6 @@
   <si>
     <t>0.82 (0.72 - 0.94)
 0.004</t>
-  </si>
-  <si>
-    <t>Adj for demographic and lifestyle factors (n=)</t>
   </si>
   <si>
     <t>1.18 (1.04 - 1.33)
@@ -523,6 +517,45 @@
   </si>
   <si>
     <t xml:space="preserve">Demographic factors include age, race, ethnicity, NSES, and eduction. Lifestyle factors include smoking status, BMI, and alcohol use. </t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Adj for demographics (n=42,943)</t>
+  </si>
+  <si>
+    <t>Adj for demographics (n=44,340)</t>
+  </si>
+  <si>
+    <t>Adj for demographics (n=41,676)</t>
+  </si>
+  <si>
+    <t>Adj for demographics (n=44,499)</t>
+  </si>
+  <si>
+    <t>Adj for demographics (n=43,786)</t>
+  </si>
+  <si>
+    <t>Adj for demographics (n=42,525)</t>
+  </si>
+  <si>
+    <t>Adj for demographic and lifestyle factors (n=42,153)</t>
+  </si>
+  <si>
+    <t>Adj for demographic and lifestyle factors (n=40,915)</t>
+  </si>
+  <si>
+    <t>Adj for demographic and lifestyle factors (n=43,531)</t>
+  </si>
+  <si>
+    <t>Adj for demographic and lifestyle factors (n=43,681)</t>
+  </si>
+  <si>
+    <t>Adj for demographic and lifestyle factors (n=42,988)</t>
+  </si>
+  <si>
+    <t>Adj for demographic and lifestyle factors (n=41,781)</t>
   </si>
 </sst>
 </file>
@@ -735,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,16 +779,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -766,9 +794,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -781,26 +806,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -810,9 +823,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -822,9 +832,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -843,6 +850,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,16 +1198,16 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1178,18 +1216,18 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -1206,440 +1244,476 @@
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="42" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="F8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="F10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="F11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="F12" s="40">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="F14" s="36">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="F15" s="36">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="F16" s="37">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="F18" s="39">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="F19" s="39">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="E20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="F20" s="40">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="F22" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="F23" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="E24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="F24" s="35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="D26" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="E26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="F26" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="D27" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="34" t="s">
+      <c r="E27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="F27" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="D28" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="38" t="s">
+      <c r="E28" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="38" t="s">
+      <c r="F28" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="41"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -1647,7 +1721,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1656,7 +1730,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1665,7 +1739,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1674,7 +1748,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1683,7 +1757,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1692,7 +1766,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1701,7 +1775,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1710,7 +1784,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1719,7 +1793,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="2"/>
     </row>
   </sheetData>
